--- a/EnterprisePortal/TC_CreateProject/Main.rvl.xlsx
+++ b/EnterprisePortal/TC_CreateProject/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="160">
   <si>
     <t>Flow</t>
   </si>
@@ -470,6 +470,30 @@
   </si>
   <si>
     <t>00000004</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>OpenModule</t>
+  </si>
+  <si>
+    <t>SelectTab</t>
+  </si>
+  <si>
+    <t>ClickRibbon</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
+  </si>
+  <si>
+    <t>SelectFastTab</t>
   </si>
 </sst>
 </file>
@@ -490,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="647">
+  <borders count="684">
     <border>
       <left/>
       <right/>
@@ -1144,11 +1168,48 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="647">
+  <cellXfs count="684">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1796,6 +1857,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="644" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="646" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="647" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="648" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="650" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="651" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="652" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="654" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="655" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="656" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="658" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="659" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="660" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="662" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="663" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="664" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="666" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="667" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="668" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="671" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="672" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="674" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="675" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="676" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="678" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="679" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="680" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="682" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="683" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,7 +1903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2028,987 +2126,927 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="628"/>
+      <c r="A17" s="625" t="s">
+        <v>127</v>
+      </c>
       <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="56"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="190"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="80"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="186"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="89"/>
+      <c r="B29" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="96"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="662"/>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="663"/>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G32" s="103" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="629"/>
-      <c r="B18" t="s">
+      <c r="H32" s="104"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="630"/>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="631"/>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="625" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
+      <c r="C34" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="152"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="633" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="634"/>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="190"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="186"/>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="96"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="177"/>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="178"/>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="104"/>
+      <c r="G36" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="179" t="s">
-        <v>7</v>
-      </c>
+      <c r="A37" s="666"/>
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="148" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="152"/>
+      <c r="A38" s="667"/>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="633" t="s">
+      <c r="A39" s="640" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="642" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="641"/>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="634"/>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="637"/>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="638"/>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
+      <c r="E42" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="158" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="159" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="160"/>
     </row>
     <row r="43">
-      <c r="A43" s="640" t="s">
-        <v>7</v>
-      </c>
+      <c r="A43" s="191"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="642" t="s">
-        <v>7</v>
-      </c>
+      <c r="A44" s="670"/>
       <c r="B44" t="s">
         <v>17</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="641"/>
+      <c r="A45" s="671"/>
       <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>39</v>
       </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="153" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="154" t="s">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="155" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="156" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="158" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="159" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="160"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="191"/>
-      <c r="B47" t="s">
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="209"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="212"/>
+      <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="196"/>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="197"/>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="192" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="198" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="199" t="s">
-        <v>7</v>
-      </c>
+      <c r="A52" s="218"/>
       <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="193" t="s">
-        <v>7</v>
-      </c>
+      <c r="A53" s="219"/>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="209"/>
+      <c r="A54" s="213"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="212"/>
+      <c r="A55" s="215"/>
       <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="218"/>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>93</v>
-      </c>
+      <c r="A56" s="214"/>
     </row>
     <row r="57">
-      <c r="A57" s="219"/>
+      <c r="A57" s="200" t="s">
+        <v>7</v>
+      </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="213"/>
+      <c r="A58" s="201" t="s">
+        <v>7</v>
+      </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="207"/>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
         <v>12</v>
       </c>
-      <c r="G58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="215"/>
-      <c r="B59" t="s">
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="674"/>
+      <c r="B60" t="s">
         <v>17</v>
       </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="214"/>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="200" t="s">
-        <v>7</v>
-      </c>
+      <c r="A61" s="195"/>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="201" t="s">
-        <v>7</v>
-      </c>
+      <c r="A62" s="211"/>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="207"/>
+      <c r="A63" s="202" t="s">
+        <v>7</v>
+      </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="208"/>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
+      <c r="A64" s="203"/>
     </row>
     <row r="65">
-      <c r="A65" s="195"/>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
+      <c r="A65" s="204"/>
     </row>
     <row r="66">
-      <c r="A66" s="211"/>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" t="s">
-        <v>7</v>
-      </c>
+      <c r="A66" s="205"/>
     </row>
     <row r="67">
-      <c r="A67" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="203"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="204"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="205"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="206"/>
+      <c r="A67" s="206"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3146,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="274" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D8" s="275" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="E8" s="276" t="s">
         <v>29</v>
@@ -3163,7 +3201,7 @@
       <c r="H8" s="279"/>
     </row>
     <row r="9">
-      <c r="A9" s="594"/>
+      <c r="A9" s="681"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
